--- a/data/trans_bre/P6903-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 16,02</t>
+          <t>-16,77; 15,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 21,68</t>
+          <t>-14,93; 21,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 33,75</t>
+          <t>-10,81; 31,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 31,67</t>
+          <t>-2,54; 32,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,55; 99,27</t>
+          <t>-54,29; 88,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,25; 154,63</t>
+          <t>-51,81; 165,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 146,15</t>
+          <t>-23,98; 127,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 162,4</t>
+          <t>-7,8; 171,44</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 13,22</t>
+          <t>-20,72; 14,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,53; 9,19</t>
+          <t>-33,06; 7,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 20,29</t>
+          <t>-32,92; 16,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 23,39</t>
+          <t>-13,26; 20,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,47; 120,3</t>
+          <t>-71,04; 143,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,02; 68,78</t>
+          <t>-87,99; 55,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,3; 77,9</t>
+          <t>-61,73; 64,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 153,29</t>
+          <t>-40,77; 146,19</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 24,2</t>
+          <t>-29,91; 20,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 37,38</t>
+          <t>-1,7; 38,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 53,08</t>
+          <t>-15,02; 55,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 25,96</t>
+          <t>-20,09; 26,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-78,86; 76,37</t>
+          <t>-80,29; 64,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 228,77</t>
+          <t>-11,43; 239,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 188,46</t>
+          <t>-39,28; 195,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,9; 114,87</t>
+          <t>-50,15; 117,79</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 14,33</t>
+          <t>-14,55; 15,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 33,38</t>
+          <t>4,08; 33,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 9,88</t>
+          <t>-16,07; 11,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 13,2</t>
+          <t>-12,04; 14,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,8; 48,66</t>
+          <t>-40,51; 53,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,0; 190,55</t>
+          <t>9,44; 190,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,95; 28,54</t>
+          <t>-34,38; 31,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 42,79</t>
+          <t>-26,15; 50,93</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 28,67</t>
+          <t>-9,68; 26,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 33,64</t>
+          <t>-10,97; 32,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 22,87</t>
+          <t>-12,67; 25,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 19,02</t>
+          <t>-32,71; 19,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 118,25</t>
+          <t>-23,0; 108,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 171,9</t>
+          <t>-25,99; 176,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 73,53</t>
+          <t>-26,07; 86,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-60,89; 57,3</t>
+          <t>-58,89; 59,81</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 6,98</t>
+          <t>-8,16; 8,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 19,21</t>
+          <t>2,61; 18,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 11,43</t>
+          <t>-6,47; 12,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 12,83</t>
+          <t>-8,48; 12,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 23,71</t>
+          <t>-23,62; 30,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,63; 94,47</t>
+          <t>8,93; 90,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 33,39</t>
+          <t>-15,05; 35,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 42,21</t>
+          <t>-21,15; 41,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6903-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6903-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
